--- a/master data.xlsx
+++ b/master data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DEPARTMENTS" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,11 +869,11 @@
         <v>68</v>
       </c>
       <c r="C10" s="6">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>VLOOKUP(C10,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>İNSAN KAYNAKLARI DEPARTMANI</v>
+        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
